--- a/GymnasieArbeteUnderlagResultat.xlsx
+++ b/GymnasieArbeteUnderlagResultat.xlsx
@@ -15,15 +15,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t xml:space="preserve">Förbättrade programmet din förståelse för sneda kaströrelser? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja </t>
+  </si>
+  <si>
+    <t>Nej</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -60,6 +81,668 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8919072615923014E-2"/>
+          <c:y val="2.8252405949256341E-2"/>
+          <c:w val="0.78827646544181973"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ja </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Förbättrade programmet din förståelse för sneda kaströrelser</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nej</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Förbättrade programmet din förståelse för sneda kaströrelser</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="36938880"/>
+        <c:axId val="36940416"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="36938880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36940416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="36940416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36938880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Till vilken grad uppfattade du programmet användarvänligt </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Till vilken grad uppfattade du programmet användarvänligt </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Till vilken grad uppfattade du programmet användarvänligt </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Till vilken grad uppfattade du programmet användarvänligt </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Till vilken grad uppfattade du programmet användarvänligt </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>6</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Till vilken grad uppfattade du programmet användarvänligt </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>7</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Till vilken grad uppfattade du programmet användarvänligt </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>8</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Till vilken grad uppfattade du programmet användarvänligt </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>9</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Till vilken grad uppfattade du programmet användarvänligt </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>10</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Till vilken grad uppfattade du programmet användarvänligt </c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="37205120"/>
+        <c:axId val="37206656"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="37205120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="37206656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="37206656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="37205120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14375</cdr:x>
+      <cdr:y>0.66667</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34375</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="textruta 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="657225" y="2509838"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="sv-SE" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10625</cdr:x>
+      <cdr:y>0.82465</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9125</cdr:x>
+      <cdr:y>0.90104</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="textruta 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="485775" y="2262188"/>
+          <a:ext cx="3686175" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="sv-SE" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,13 +1032,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/GymnasieArbeteUnderlagResultat.xlsx
+++ b/GymnasieArbeteUnderlagResultat.xlsx
@@ -86,7 +86,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="sv-SE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -204,12 +204,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="36938880"/>
-        <c:axId val="36940416"/>
+        <c:axId val="186500224"/>
+        <c:axId val="186501760"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="36938880"/>
+        <c:axId val="186500224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -219,7 +219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36940416"/>
+        <c:crossAx val="186501760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -227,7 +227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36940416"/>
+        <c:axId val="186501760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -238,7 +238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36938880"/>
+        <c:crossAx val="186500224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -264,7 +264,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="sv-SE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -556,12 +556,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="37205120"/>
-        <c:axId val="37206656"/>
+        <c:axId val="187284480"/>
+        <c:axId val="187290368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="37205120"/>
+        <c:axId val="187284480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37206656"/>
+        <c:crossAx val="187290368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -578,7 +578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37206656"/>
+        <c:axId val="187290368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37205120"/>
+        <c:crossAx val="187284480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
